--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_5_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_5_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.214908777307046e-16</v>
+        <v>4.853433987432378e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.90831147817089</v>
+        <v>37.58260788745167</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.05338701169953, 51.76323594464225]</t>
+          <t>[30.41447923350421, 44.750736541399135]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.226447582482503</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 1.4277107755052727]</t>
+          <t>[1.2767633807381937, 1.7044476659115801]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.17568263553635</v>
+        <v>58.65364927358464</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.69577919789446, 62.655586073178235]</t>
+          <t>[54.06413862050336, 63.243159926665925]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.35555555555581</v>
+        <v>18.45123123123149</v>
       </c>
       <c r="X2" t="n">
-        <v>18.58518518518543</v>
+        <v>17.62794794794819</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.12592592592619</v>
+        <v>19.27451451451479</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.639133687258436e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.214908777307046e-16</v>
+        <v>2.37105021606903e-13</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.50244082346298</v>
+        <v>33.79720153941665</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.08858028606071, 50.916301360865255]</t>
+          <t>[23.220795727219176, 44.37360735161413]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.006483950684924e-13</v>
+        <v>1.192160148377752e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.006483950684924e-13</v>
+        <v>1.192160148377752e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.352263568453619</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.616421509296004, -2.088105627611234]</t>
+          <t>[1.9308687580621955, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.79797324187381</v>
+        <v>58.79606883547142</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.38149981855277, 66.21444666519486]</t>
+          <t>[53.13646915262669, 64.45566851831616]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.482902902903099</v>
+        <v>15.90710710710739</v>
       </c>
       <c r="X3" t="n">
-        <v>8.417977977978152</v>
+        <v>14.61465465465491</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.54782782782805</v>
+        <v>17.19955955955987</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_5_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_5_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.853433987432378e-16</v>
+        <v>2.099712576123227e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>37.58260788745167</v>
+        <v>39.18684691518747</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.41447923350421, 44.750736541399135]</t>
+          <t>[30.594758747141974, 47.77893508323297]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.490605523324887</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2767633807381937, 1.7044476659115801]</t>
+          <t>[1.7547634641672714, 2.207605648468504]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.65364927358464</v>
+        <v>60.6415917394357</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.06413862050336, 63.243159926665925]</t>
+          <t>[56.023590213909785, 65.25959326496161]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.45123123123149</v>
+        <v>16.85693693693722</v>
       </c>
       <c r="X2" t="n">
-        <v>17.62794794794819</v>
+        <v>15.96972972972999</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.27451451451479</v>
+        <v>17.74414414414444</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,41 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.639133687258436e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.37105021606903e-13</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.099712576123227e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.634122411480701</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>33.79720153941665</v>
+        <v>43.88774529771595</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[23.220795727219176, 44.37360735161413]</t>
+          <t>[34.965443121170374, 52.81004747426153]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.192160148377752e-09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.192160148377752e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.257921446724196</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9308687580621955, 2.5849741353861964]</t>
+          <t>[-3.1950531892364666, -2.742211004935234]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.79606883547142</v>
+        <v>64.29969679363194</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.13646915262669, 64.45566851831616]</t>
+          <t>[58.876492811299634, 69.72290077596423]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.90710710710739</v>
+        <v>11.85905905905929</v>
       </c>
       <c r="X3" t="n">
-        <v>14.61465465465491</v>
+        <v>10.95455455455476</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19955955955987</v>
+        <v>12.76356356356381</v>
       </c>
     </row>
   </sheetData>
